--- a/pabi_budget_plan/xlsx_template/budget_plan_project_20180214.xlsx
+++ b/pabi_budget_plan/xlsx_template/budget_plan_project_20180214.xlsx
@@ -1283,15 +1283,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>342000</xdr:colOff>
       <xdr:row>541</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1300,8 +1300,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="63720" y="168480"/>
-          <a:ext cx="25580160" cy="89182800"/>
+          <a:off x="64080" y="168840"/>
+          <a:ext cx="25579800" cy="89182080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1328,15 +1328,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>342000</xdr:colOff>
       <xdr:row>541</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1345,8 +1345,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="63720" y="168480"/>
-          <a:ext cx="25580160" cy="89182800"/>
+          <a:off x="64080" y="168840"/>
+          <a:ext cx="25579800" cy="89182080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1373,15 +1373,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>342000</xdr:colOff>
       <xdr:row>541</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1390,8 +1390,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="63720" y="168480"/>
-          <a:ext cx="25580160" cy="89182800"/>
+          <a:off x="64080" y="168840"/>
+          <a:ext cx="25579800" cy="89182080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1418,15 +1418,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>342000</xdr:colOff>
       <xdr:row>541</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1435,8 +1435,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="63720" y="168480"/>
-          <a:ext cx="25580160" cy="89182800"/>
+          <a:off x="64080" y="168840"/>
+          <a:ext cx="25579800" cy="89182080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1463,15 +1463,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>342000</xdr:colOff>
       <xdr:row>541</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1480,8 +1480,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="63720" y="168480"/>
-          <a:ext cx="25580160" cy="89182800"/>
+          <a:off x="64080" y="168840"/>
+          <a:ext cx="25579800" cy="89182080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1508,15 +1508,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>342000</xdr:colOff>
       <xdr:row>541</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1525,8 +1525,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="63720" y="168480"/>
-          <a:ext cx="25580160" cy="89182800"/>
+          <a:off x="64080" y="168840"/>
+          <a:ext cx="25579800" cy="89182080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1553,15 +1553,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>342000</xdr:colOff>
       <xdr:row>541</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1570,8 +1570,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="63720" y="168480"/>
-          <a:ext cx="25580160" cy="89182800"/>
+          <a:off x="64080" y="168840"/>
+          <a:ext cx="25579800" cy="89182080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1598,15 +1598,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>342000</xdr:colOff>
       <xdr:row>541</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1615,8 +1615,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="63720" y="168480"/>
-          <a:ext cx="25580160" cy="89182800"/>
+          <a:off x="64080" y="168840"/>
+          <a:ext cx="25579800" cy="89182080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1643,15 +1643,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>342000</xdr:colOff>
       <xdr:row>541</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1660,8 +1660,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="63720" y="168480"/>
-          <a:ext cx="25580160" cy="89182800"/>
+          <a:off x="64080" y="168840"/>
+          <a:ext cx="25579800" cy="89182080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1700,7 +1700,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
